--- a/biology/Zoologie/Chrysotus/Chrysotus.xlsx
+++ b/biology/Zoologie/Chrysotus/Chrysotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysotus est un genre de petites mouches prédatrices, à longues pattes de la famille des Dolichopodidae et de la sous-famille des Diaphorinae. Il s'agit d'un taxon actuel, mais il existe des espèces fossiles (Chrysotus decorus, Chrysotus lepidus, Chrysotus praeconcinnus, Chrysotus setosus, Chrysotus stanciui) datant du Quaternaire de l'Ukraine, de l'Éocène de la Roumanie et de la Russie et de Miocène du Mexique.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A
-Chrysotus acuticornis - 
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus acuticornis - 
 Chrysotus acutus - 
 Chrysotus adsiduus - 
 Chrysotus affinis - 
@@ -544,8 +561,43 @@
 Chrysotus atratus - 
 Chrysotus auratus - 
 Chrysotus azoricus
-B
-Chrysotus badius - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus badius - 
 Chrysotus baerti - 
 Chrysotus baicalensis - 
 Chrysotus bajaensis - 
@@ -564,8 +616,43 @@
 Chrysotus brevicornis - 
 Chrysotus brevispina - 
 Chrysotus brevitibia
-C
-Chrysotus caerulescens - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus caerulescens - 
 Chrysotus caerulus - 
 Chrysotus calcaratus - 
 Chrysotus californicus - 
@@ -597,8 +684,43 @@
 Chrysotus cubanus - 
 Chrysotus cupreus - 
 Chrysotus currani
-D
-Chrysotus dakotensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus dakotensis - 
 Chrysotus decipiens - 
 Chrysotus defensus - 
 Chrysotus degener - 
@@ -614,8 +736,43 @@
 Chrysotus dorli - 
 Chrysotus dorsalis - 
 Chrysotus dubius
-E
-Chrysotus edwadsi - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus edwadsi - 
 Chrysotus elongatus - 
 Chrysotus emarginatus - 
 Chrysotus eques - 
@@ -626,8 +783,43 @@
 Chrysotus excisus - 
 Chrysotus excretus - 
 Chrysotus exilis
-F
-Chrysotus femoralis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus femoralis - 
 Chrysotus femoratus - 
 Chrysotus flavicauda - 
 Chrysotus flavimaculata - 
@@ -637,16 +829,86 @@
 Chrysotus frontalis - 
 Chrysotus furcatus - 
 Chrysotus fuscoluteus
-G
-Chrysotus giganteus - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus giganteus - 
 Chrysotus gilvipes - 
 Chrysotus glebi - 
 Chrysotus gramineus - 
 Chrysotus grandicornis - 
 Chrysotus gratiosus - 
 Chrysotus guyanensis
-H
-Chrysotus halteralis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus halteralis - 
 Chrysotus halteratus - 
 Chrysotus harmstoni - 
 Chrysotus hastatus - 
@@ -656,8 +918,43 @@
 Chrysotus hirtus - 
 Chrysotus humilis - 
 Chrysotus hypnususi
-I
-Chrysotus idahoensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus idahoensis - 
 Chrysotus imitator - 
 Chrysotus incertus - 
 Chrysotus incisus - 
@@ -670,16 +967,121 @@
 Chrysotus insignis - 
 Chrysotus integer - 
 Chrysotus intrudus
-J
-Chrysotus javanensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus javanensis - 
 Chrysotus johnsoni - 
 Chrysotus junctus
-K
-Chrysotus kansensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus kansensis - 
 Chrysotus kerguelensis - 
 Chrysotus kholsa
-L
-Chrysotus laciniatus - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus laciniatus - 
 Chrysotus laesus - 
 Chrysotus lamellicaudatus - 
 Chrysotus lamellifer - 
@@ -698,8 +1100,43 @@
 Chrysotus longiseta - 
 Chrysotus longiventris - 
 Chrysotus lundbladi
-M
-Chrysotus madagascariensis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus madagascariensis - 
 Chrysotus magnicornis - 
 Chrysotus magnipalpus - 
 Chrysotus major - 
@@ -722,8 +1159,43 @@
 Chrysotus monochaetus - 
 Chrysotus monticola - 
 Chrysotus morrisoni
-N
-Chrysotus nanus - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus nanus - 
 Chrysotus neglectus - 
 Chrysotus neopicticornis - 
 Chrysotus neoselandensis - 
@@ -737,14 +1209,84 @@
 Chrysotus nudipes - 
 Chrysotus nudisetus - 
 Chrysotus nudus
-O
-Chrysotus obliquus - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus obliquus - 
 Chrysotus obscuripes - 
 Chrysotus orichalceus - 
 Chrysotus orientalis - 
 Chrysotus ovalicornis
-P
-Chrysotus pallidipalpus - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus pallidipalpus - 
 Chrysotus pallipes - 
 Chrysotus palmatus - 
 Chrysotus palparis - 
@@ -780,15 +1322,120 @@
 Chrysotus pulchellus - 
 Chrysotus pulcher - 
 Chrysotus pygmaeus
-Q
-Chrysotus quadratus
-R
-Chrysotus rauterbergi - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus quadratus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus rauterbergi - 
 Chrysotus ringdahli - 
 Chrysotus romanicus - 
 Chrysotus rubzovi
-S
-Chrysotus sagittarius - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus sagittarius - 
 Chrysotus serratus - 
 Chrysotus setifer - 
 Chrysotus seychellensis - 
@@ -808,8 +1455,43 @@
 Chrysotus subfemoratus - 
 Chrysotus subjectus - 
 Chrysotus superbus
-T
-Chrysotus tarsalis - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus tarsalis - 
 Chrysotus teapanus - 
 Chrysotus tennesseensis - 
 Chrysotus terminalis - 
@@ -818,11 +1500,81 @@
 Chrysotus tricolor - 
 Chrysotus tuberculatus - 
 Chrysotus tumidipes
-U
-Chrysotus unicolor - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus unicolor - 
 Chrysotus uniseriatus
-V
-Chrysotus varipes - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus varipes - 
 Chrysotus velox - 
 Chrysotus verecundus - 
 Chrysotus verralli - 
@@ -835,16 +1587,121 @@
 Chrysotus vockerothi - 
 Chrysotus vugaris - 
 Chrysotus vulvanicola
-W
-Chrysotus weii - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus weii - 
 Chrysotus wisconsinensis
-X
-Chrysotus xanthocal - 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus xanthocal - 
 Chrysotus xanthoprasius - 
 Chrysotus xiaolongmensis - 
 Chrysotus xiphostoma
-Z
-Chrysotus zlobiniani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chrysotus</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysotus</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysotus zlobiniani
 </t>
         </is>
       </c>
